--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H2">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I2">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J2">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N2">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O2">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P2">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q2">
-        <v>1558.532353465621</v>
+        <v>1459.900429219797</v>
       </c>
       <c r="R2">
-        <v>14026.79118119059</v>
+        <v>13139.10386297817</v>
       </c>
       <c r="S2">
-        <v>0.3851044791163941</v>
+        <v>0.3945168307856071</v>
       </c>
       <c r="T2">
-        <v>0.4093170434735222</v>
+        <v>0.4044381817908372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H3">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I3">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J3">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P3">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q3">
-        <v>527.3524727287889</v>
+        <v>597.5020531053934</v>
       </c>
       <c r="R3">
-        <v>4746.1722545591</v>
+        <v>5377.518477948541</v>
       </c>
       <c r="S3">
-        <v>0.1303057962636272</v>
+        <v>0.1614662285598545</v>
       </c>
       <c r="T3">
-        <v>0.1384984755214198</v>
+        <v>0.1655267983607499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H4">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I4">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J4">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N4">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O4">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P4">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q4">
-        <v>480.6529087983088</v>
+        <v>387.3615176857837</v>
       </c>
       <c r="R4">
-        <v>4325.87617918478</v>
+        <v>3486.253659172053</v>
       </c>
       <c r="S4">
-        <v>0.1187665996582954</v>
+        <v>0.1046788090934181</v>
       </c>
       <c r="T4">
-        <v>0.1262337782907065</v>
+        <v>0.1073112828607785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H5">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I5">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J5">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N5">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O5">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P5">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q5">
-        <v>342.2123577356041</v>
+        <v>152.05006766719</v>
       </c>
       <c r="R5">
-        <v>2053.274146413625</v>
+        <v>912.3004060031401</v>
       </c>
       <c r="S5">
-        <v>0.08455872698434168</v>
+        <v>0.04108931651513723</v>
       </c>
       <c r="T5">
-        <v>0.05991677584661304</v>
+        <v>0.02808175666306974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H6">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I6">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J6">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N6">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O6">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P6">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q6">
-        <v>621.0148661064799</v>
+        <v>829.667698985048</v>
       </c>
       <c r="R6">
-        <v>5589.13379495832</v>
+        <v>7467.009290865432</v>
       </c>
       <c r="S6">
-        <v>0.1534492408859375</v>
+        <v>0.2242056133812456</v>
       </c>
       <c r="T6">
-        <v>0.163097011353391</v>
+        <v>0.2298439598702122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.099941</v>
       </c>
       <c r="I7">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J7">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N7">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O7">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P7">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q7">
-        <v>75.0229212110669</v>
+        <v>62.02445678719889</v>
       </c>
       <c r="R7">
-        <v>675.2062908996021</v>
+        <v>558.2201110847901</v>
       </c>
       <c r="S7">
-        <v>0.01853773707715044</v>
+        <v>0.01676120619812524</v>
       </c>
       <c r="T7">
-        <v>0.0197032549466021</v>
+        <v>0.01718271878513324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.099941</v>
       </c>
       <c r="I8">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J8">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P8">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q8">
         <v>25.38511499233111</v>
@@ -948,10 +948,10 @@
         <v>228.46603493098</v>
       </c>
       <c r="S8">
-        <v>0.006272517516042108</v>
+        <v>0.0068599576487931</v>
       </c>
       <c r="T8">
-        <v>0.006666887725359983</v>
+        <v>0.007032472589611113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.099941</v>
       </c>
       <c r="I9">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J9">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N9">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O9">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P9">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q9">
-        <v>23.13714259858711</v>
+        <v>16.45720984380122</v>
       </c>
       <c r="R9">
-        <v>208.234283387284</v>
+        <v>148.114888594211</v>
       </c>
       <c r="S9">
-        <v>0.005717056324725932</v>
+        <v>0.004447321297535319</v>
       </c>
       <c r="T9">
-        <v>0.006076503180585315</v>
+        <v>0.00455916300410591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.099941</v>
       </c>
       <c r="I10">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J10">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N10">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O10">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P10">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q10">
-        <v>16.47304317729584</v>
+        <v>6.459908266863334</v>
       </c>
       <c r="R10">
-        <v>98.83825906377501</v>
+        <v>38.75944960118</v>
       </c>
       <c r="S10">
-        <v>0.004070395265230095</v>
+        <v>0.00174569613488686</v>
       </c>
       <c r="T10">
-        <v>0.002884208045836221</v>
+        <v>0.001193064724001784</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.099941</v>
       </c>
       <c r="I11">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J11">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N11">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O11">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P11">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q11">
-        <v>29.893732566544</v>
+        <v>35.24876581544267</v>
       </c>
       <c r="R11">
-        <v>269.043593098896</v>
+        <v>317.238892338984</v>
       </c>
       <c r="S11">
-        <v>0.007386571272187358</v>
+        <v>0.009525465641546726</v>
       </c>
       <c r="T11">
-        <v>0.007850985066378248</v>
+        <v>0.009765013059409364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H12">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I12">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J12">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N12">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O12">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P12">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q12">
-        <v>0.9317660399422222</v>
+        <v>5.237405720706667</v>
       </c>
       <c r="R12">
-        <v>8.38589435948</v>
+        <v>47.13665148636001</v>
       </c>
       <c r="S12">
-        <v>0.0002302340882897879</v>
+        <v>0.001415332624825551</v>
       </c>
       <c r="T12">
-        <v>0.0002447095306235457</v>
+        <v>0.001450925559433906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H13">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I13">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J13">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P13">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q13">
-        <v>0.3152768205777778</v>
+        <v>2.143543907813334</v>
       </c>
       <c r="R13">
-        <v>2.8374913852</v>
+        <v>19.29189517032</v>
       </c>
       <c r="S13">
-        <v>7.790310897049733E-05</v>
+        <v>0.0005792615251248702</v>
       </c>
       <c r="T13">
-        <v>8.280108897814725E-05</v>
+        <v>0.0005938288552515584</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H14">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I14">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J14">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N14">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O14">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P14">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q14">
-        <v>0.2873575620177777</v>
+        <v>1.389662875702667</v>
       </c>
       <c r="R14">
-        <v>2.58621805816</v>
+        <v>12.506965881324</v>
       </c>
       <c r="S14">
-        <v>7.100441899389434E-05</v>
+        <v>0.0003755361548017516</v>
       </c>
       <c r="T14">
-        <v>7.546865962925331E-05</v>
+        <v>0.0003849801777589554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H15">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I15">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J15">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N15">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O15">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P15">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q15">
-        <v>0.2045911030833333</v>
+        <v>0.5454809645200001</v>
       </c>
       <c r="R15">
-        <v>1.2275466185</v>
+        <v>3.27288578712</v>
       </c>
       <c r="S15">
-        <v>5.055329779298902E-05</v>
+        <v>0.0001474082869414012</v>
       </c>
       <c r="T15">
-        <v>3.582114726881472E-05</v>
+        <v>0.0001007435507593175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H16">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I16">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J16">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N16">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O16">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P16">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q16">
-        <v>0.3712727305599999</v>
+        <v>2.976440218784</v>
       </c>
       <c r="R16">
-        <v>3.341454575039999</v>
+        <v>26.787961969056</v>
       </c>
       <c r="S16">
-        <v>9.173937980465799E-05</v>
+        <v>0.0008043396238776581</v>
       </c>
       <c r="T16">
-        <v>9.750728373218399E-05</v>
+        <v>0.0008245672418477559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H17">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I17">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J17">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N17">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O17">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P17">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q17">
-        <v>148.6706490120463</v>
+        <v>46.75884520387667</v>
       </c>
       <c r="R17">
-        <v>892.0238940722779</v>
+        <v>280.55307122326</v>
       </c>
       <c r="S17">
-        <v>0.03673567168520334</v>
+        <v>0.0126358969774992</v>
       </c>
       <c r="T17">
-        <v>0.0260302287467583</v>
+        <v>0.008635777234479652</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H18">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I18">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J18">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>44.79778</v>
       </c>
       <c r="O18">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P18">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q18">
-        <v>50.30491295503667</v>
+        <v>19.13726816635333</v>
       </c>
       <c r="R18">
-        <v>301.82947773022</v>
+        <v>114.82360899812</v>
       </c>
       <c r="S18">
-        <v>0.01243005784093418</v>
+        <v>0.005171568030101121</v>
       </c>
       <c r="T18">
-        <v>0.008807712887560402</v>
+        <v>0.003534415446757537</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H19">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I19">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J19">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N19">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O19">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P19">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q19">
-        <v>45.85017419861266</v>
+        <v>12.40672095225567</v>
       </c>
       <c r="R19">
-        <v>275.101045191676</v>
+        <v>74.44032571353399</v>
       </c>
       <c r="S19">
-        <v>0.0113293172341848</v>
+        <v>0.003352735660980051</v>
       </c>
       <c r="T19">
-        <v>0.008027748115715149</v>
+        <v>0.002291367074761468</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H20">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I20">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J20">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N20">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O20">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P20">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q20">
-        <v>32.64413036493125</v>
+        <v>4.86997978423</v>
       </c>
       <c r="R20">
-        <v>130.576521459725</v>
+        <v>19.47991913692</v>
       </c>
       <c r="S20">
-        <v>0.008066178923036273</v>
+        <v>0.001316041116236382</v>
       </c>
       <c r="T20">
-        <v>0.003810365109207748</v>
+        <v>0.0005996164699913332</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H21">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I21">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J21">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N21">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O21">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P21">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q21">
-        <v>59.23950374522399</v>
+        <v>26.573253032216</v>
       </c>
       <c r="R21">
-        <v>355.4370224713439</v>
+        <v>159.439518193296</v>
       </c>
       <c r="S21">
-        <v>0.0146377444024112</v>
+        <v>0.007181034651477259</v>
       </c>
       <c r="T21">
-        <v>0.01037203942795515</v>
+        <v>0.004907749380488391</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H22">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I22">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J22">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N22">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O22">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P22">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q22">
-        <v>3.771269353170001</v>
+        <v>2.718757979812223</v>
       </c>
       <c r="R22">
-        <v>33.94142417853001</v>
+        <v>24.46882181831</v>
       </c>
       <c r="S22">
-        <v>0.0009318592049954447</v>
+        <v>0.000734704751365692</v>
       </c>
       <c r="T22">
-        <v>0.0009904477236865378</v>
+        <v>0.0007531811841936504</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H23">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I23">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J23">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>44.79778</v>
       </c>
       <c r="O23">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P23">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q23">
-        <v>1.2760647633</v>
+        <v>1.112722102357778</v>
       </c>
       <c r="R23">
-        <v>11.4845828697</v>
+        <v>10.01449892122</v>
       </c>
       <c r="S23">
-        <v>0.0003153083443514611</v>
+        <v>0.0003006969438332813</v>
       </c>
       <c r="T23">
-        <v>0.0003351326361838131</v>
+        <v>0.00030825890239416</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H24">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I24">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J24">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N24">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O24">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P24">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q24">
-        <v>1.16306317314</v>
+        <v>0.7213794832865557</v>
       </c>
       <c r="R24">
-        <v>10.46756855826</v>
+        <v>6.492415349579</v>
       </c>
       <c r="S24">
-        <v>0.0002873862942117102</v>
+        <v>0.0001949423000663582</v>
       </c>
       <c r="T24">
-        <v>0.0003054550509291684</v>
+        <v>0.0001998447296556709</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H25">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I25">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J25">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N25">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O25">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P25">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q25">
-        <v>0.8280707000625001</v>
+        <v>0.2831613215033333</v>
       </c>
       <c r="R25">
-        <v>4.968424200375001</v>
+        <v>1.69896792902</v>
       </c>
       <c r="S25">
-        <v>0.0002046115596573986</v>
+        <v>7.652022351980594E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001449840293585362</v>
+        <v>5.229637479842902E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H26">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I26">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J26">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N26">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O26">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P26">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q26">
-        <v>1.50270498216</v>
+        <v>1.545081864530667</v>
       </c>
       <c r="R26">
-        <v>13.52434483944</v>
+        <v>13.905736780776</v>
       </c>
       <c r="S26">
-        <v>0.0003713098532305202</v>
+        <v>0.0004175358731997349</v>
       </c>
       <c r="T26">
-        <v>0.0003946551119987583</v>
+        <v>0.0004280361095192873</v>
       </c>
     </row>
   </sheetData>
